--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1281B03-35ED-4C15-973B-CD9CA9591D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EAFABF-C3DF-45AB-A008-3B0C39E3A7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Fecha</t>
   </si>
@@ -131,10 +131,16 @@
     <t>Febrero/27/2004</t>
   </si>
   <si>
-    <t>Unsigned</t>
-  </si>
-  <si>
     <t>Signed</t>
+  </si>
+  <si>
+    <t>Signed (R-L)</t>
+  </si>
+  <si>
+    <t>Unsigned (|R-L|)</t>
+  </si>
+  <si>
+    <t>Unsinged</t>
   </si>
 </sst>
 </file>
@@ -199,9 +205,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -222,6 +225,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,15 +544,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,1015 +572,1021 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>4.01</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>F2-G2</f>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>ABS(F2-G2)</f>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2.76</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>3.74</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3.75</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H30" si="0">F3-G3</f>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I30" si="1">ABS(F3-G3)</f>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
         <v>29</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2.87</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>4.08</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>4.05</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>3.42</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>4.1100000000000003</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>4.07</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <f>AVERAGE(I2:I30)</f>
         <v>4.3103448275862009E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
         <v>39</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2.99</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>3.96</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>3.84</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H30)))</f>
         <v>4.572341488740217E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
         <v>43</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>3.21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>3.39</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>3.27</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
         <v>55</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1.71</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>4.08</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>4.09</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
         <v>69</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3.24</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>3.81</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>3.72</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
         <v>70</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>3.76</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>4.01</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>4.01</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
         <v>72</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3.99</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4.07</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>2.9999999999999361E-2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>2.9999999999999361E-2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
         <v>76</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>3.88</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>4.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>-0.14999999999999947</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>0.14999999999999947</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
         <v>78</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>4.59</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>4.47</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>4.43</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
         <v>82</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3.4</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>3.87</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>3.84</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
         <v>83</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>4.12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>3.81</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>3.84</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>-2.9999999999999805E-2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
         <v>87</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>4.47</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>4.5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
         <v>104</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>2.74</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>4.17</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
         <v>109</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>4.28</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>1.0000000000000675E-2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>1.0000000000000675E-2</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
         <v>110</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>3.21</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>4.28</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
         <v>121</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>4.18</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="1"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
         <v>125</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>3.92</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>4.16</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>4.17</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
         <v>128</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>3.92</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>4.21</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>2.0000000000000462E-2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
         <v>2.0000000000000462E-2</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
         <v>129</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>4.34</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>4.33</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
         <v>134</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>3.91</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>3.84</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>3.83</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
         <v>137</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>4.3</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>3.94</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>3.92</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
         <v>138</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>3.89</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>4.04</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>4.01</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="1"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
         <v>141</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>3.59</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>4.0199999999999996</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>4</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <f t="shared" si="0"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="1"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
         <v>142</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>4.01</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>4.07</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f t="shared" si="0"/>
         <v>-6.9999999999999396E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="1"/>
         <v>6.9999999999999396E-2</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
         <v>145</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>3.4</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3.85</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>3.95</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <f t="shared" si="0"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="1"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6">
         <v>146</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>3.67</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>3.97</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>3.96</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <f t="shared" si="0"/>
         <v>1.0000000000000231E-2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="1"/>
         <v>1.0000000000000231E-2</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EAFABF-C3DF-45AB-A008-3B0C39E3A7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EDAD53-03F2-484A-8310-6B8EA87AC040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId1"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
   <si>
     <t>Fecha</t>
   </si>
@@ -141,13 +142,136 @@
   </si>
   <si>
     <t>Unsinged</t>
+  </si>
+  <si>
+    <t>Forceps</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Derecha</t>
+  </si>
+  <si>
+    <t>Junio/3/2002</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Junio/17/2002</t>
+  </si>
+  <si>
+    <t>April/4/2003</t>
+  </si>
+  <si>
+    <t>Agosto/20/2001</t>
+  </si>
+  <si>
+    <t>Agosto/10/2001</t>
+  </si>
+  <si>
+    <t>Agosto/3/2001</t>
+  </si>
+  <si>
+    <t>Agosto/6/2001</t>
+  </si>
+  <si>
+    <t>Enero/14/2002</t>
+  </si>
+  <si>
+    <t>Enero/21/2002</t>
+  </si>
+  <si>
+    <t>Diciembre/3/2001</t>
+  </si>
+  <si>
+    <t>Diciembre/24/2001</t>
+  </si>
+  <si>
+    <t>Febrero/18/2002</t>
+  </si>
+  <si>
+    <t>Marzo/01/2002</t>
+  </si>
+  <si>
+    <t>Mayo/27/2002</t>
+  </si>
+  <si>
+    <t>Mayo/31/2002</t>
+  </si>
+  <si>
+    <t>Junio/10/2002</t>
+  </si>
+  <si>
+    <t>Enero/10/2003</t>
+  </si>
+  <si>
+    <t>Enero/6/2003</t>
+  </si>
+  <si>
+    <t>Enero/17/2003</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Noviembre/26/2001</t>
+  </si>
+  <si>
+    <t>Octubre/01/2001</t>
+  </si>
+  <si>
+    <t>Octubre/29/2001</t>
+  </si>
+  <si>
+    <t>Octubre/4/2002</t>
+  </si>
+  <si>
+    <t>Septiembre/23/2002</t>
+  </si>
+  <si>
+    <t>Julio/20/2001</t>
+  </si>
+  <si>
+    <t>Agosto/5/2002</t>
+  </si>
+  <si>
+    <t>Diciembre/30/2002</t>
+  </si>
+  <si>
+    <t>Febrero/4/2002</t>
+  </si>
+  <si>
+    <t>Febrero/28/2003</t>
+  </si>
+  <si>
+    <t>Febrero/24/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marzo/10/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marzo/3/2003</t>
+  </si>
+  <si>
+    <t>Agosto/29/2003</t>
+  </si>
+  <si>
+    <t>Septiembre/29/2003</t>
+  </si>
+  <si>
+    <t>Enero/29/2004</t>
+  </si>
+  <si>
+    <t>Subset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +290,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -229,6 +360,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,4 +1729,2358 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
+  <dimension ref="A1:S68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3.56</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N2" s="8">
+        <f>L2-M2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <f>ABS(L2-M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.42</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8">
+        <v>13</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3.13</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="N3" s="8">
+        <f>L3-M3</f>
+        <v>1.9999999999999962E-2</v>
+      </c>
+      <c r="O3" s="6">
+        <f>ABS(L3-M3)</f>
+        <v>1.9999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N31" si="0">L4-M4</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:O31" si="1">ABS(L4-M4)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="10">
+        <f>AVERAGE(O2:O31)</f>
+        <v>1.2333333333333333E-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="10">
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(N2:N31)))</f>
+        <v>1.3034093595723066E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.07</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3.47</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8">
+        <v>37</v>
+      </c>
+      <c r="K10" s="8">
+        <v>4.24</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8">
+        <v>38</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3.77</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8">
+        <v>40</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8">
+        <v>42</v>
+      </c>
+      <c r="K13" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8">
+        <v>46</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8">
+        <v>47</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8">
+        <v>50</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.88</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8">
+        <v>57</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8">
+        <v>62</v>
+      </c>
+      <c r="K18" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8">
+        <v>64</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.47</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8">
+        <v>68</v>
+      </c>
+      <c r="K20" s="8">
+        <v>3.55</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.36</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8">
+        <v>80</v>
+      </c>
+      <c r="K21" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>33</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8">
+        <v>86</v>
+      </c>
+      <c r="K22" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="6">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8">
+        <v>107</v>
+      </c>
+      <c r="K23" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999971E-2</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6">
+        <v>35</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8">
+        <v>117</v>
+      </c>
+      <c r="K24" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8">
+        <v>124</v>
+      </c>
+      <c r="K25" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8">
+        <v>127</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="6">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8">
+        <v>131</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999534E-3</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8">
+        <v>135</v>
+      </c>
+      <c r="K28" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8">
+        <v>136</v>
+      </c>
+      <c r="K29" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3.46</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8">
+        <v>139</v>
+      </c>
+      <c r="K30" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="J31" s="8">
+        <v>140</v>
+      </c>
+      <c r="K31" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6">
+        <v>49</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6">
+        <v>50</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.88</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="6">
+        <v>51</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3.88</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3.46</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="6">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6">
+        <v>57</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="6">
+        <v>58</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4.51</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6">
+        <v>62</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6">
+        <v>64</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6">
+        <v>66</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3.66</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6">
+        <v>67</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6">
+        <v>68</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="6">
+        <v>80</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6">
+        <v>81</v>
+      </c>
+      <c r="E45" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6">
+        <v>85</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="6">
+        <v>86</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3.44</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="6">
+        <v>94</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="6">
+        <v>98</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="6">
+        <v>99</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="6">
+        <v>100</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="6">
+        <v>106</v>
+      </c>
+      <c r="E52" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="6">
+        <v>107</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="6">
+        <v>113</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3.87</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="6">
+        <v>114</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="6">
+        <v>115</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="6">
+        <v>117</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="6">
+        <v>118</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4.12</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="6">
+        <v>120</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6">
+        <v>124</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="6">
+        <v>126</v>
+      </c>
+      <c r="E61" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="6">
+        <v>127</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="6">
+        <v>131</v>
+      </c>
+      <c r="E63" s="6">
+        <v>3.87</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="6">
+        <v>132</v>
+      </c>
+      <c r="E64" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="6"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="6">
+        <v>135</v>
+      </c>
+      <c r="E65" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="6">
+        <v>136</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4.03</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="6">
+        <v>139</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="6">
+        <v>140</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EDAD53-03F2-484A-8310-6B8EA87AC040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A185E-6F65-4AF3-A3B4-B14ADD8A1B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId1"/>
@@ -358,12 +358,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +707,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,10 +1761,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="13"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -1774,10 +1774,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1791,10 +1791,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="6"/>
@@ -3479,7 +3479,7 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3557,7 +3557,7 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="6" t="s">

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A185E-6F65-4AF3-A3B4-B14ADD8A1B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DDDED-A164-4C59-B098-93AF26B9E1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
-    <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId1"/>
-    <sheet name="Forceps" sheetId="2" r:id="rId2"/>
+    <sheet name="First Wing Area Female" sheetId="3" r:id="rId1"/>
+    <sheet name="FA index" sheetId="4" r:id="rId2"/>
+    <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId3"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -265,6 +267,36 @@
   </si>
   <si>
     <t>Subset</t>
+  </si>
+  <si>
+    <t>Ala 1 area</t>
+  </si>
+  <si>
+    <t>Removidos para Normality</t>
+  </si>
+  <si>
+    <t>Ind:Side</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Replicates</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>FA10</t>
+  </si>
+  <si>
+    <t>%ME</t>
+  </si>
+  <si>
+    <t>First Wing Area Female</t>
   </si>
 </sst>
 </file>
@@ -302,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -363,6 +401,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22849E6-FD6D-443C-B032-872330CCF798}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="3" t="s">
@@ -722,416 +779,416 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F2" s="6">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4.01</v>
+      <c r="F2" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4.84</v>
       </c>
       <c r="H2" s="8">
         <f>F2-G2</f>
-        <v>4.9999999999999822E-2</v>
+        <v>6.0000000000000497E-2</v>
       </c>
       <c r="I2" s="6">
         <f>ABS(F2-G2)</f>
-        <v>4.9999999999999822E-2</v>
+        <v>6.0000000000000497E-2</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
         <v>22</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>2.76</v>
       </c>
-      <c r="F3" s="6">
-        <v>3.74</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3.75</v>
+      <c r="F3" s="8">
+        <v>4.37</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4.3499999999999996</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H30" si="0">F3-G3</f>
-        <v>-9.9999999999997868E-3</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I30" si="1">ABS(F3-G3)</f>
-        <v>9.9999999999997868E-3</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
         <v>29</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>2.87</v>
       </c>
-      <c r="F4" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4.05</v>
+      <c r="F4" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5.3</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000249E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>3.42</v>
       </c>
-      <c r="F5" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4.07</v>
+      <c r="F5" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5.47</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10">
-        <f>AVERAGE(I2:I30)</f>
-        <v>4.3103448275862009E-2</v>
+        <f>AVERAGE(I2:I29)</f>
+        <v>6.5000000000000085E-2</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
         <v>39</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>2.99</v>
       </c>
-      <c r="F6" s="6">
-        <v>3.96</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3.84</v>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.8899999999999997</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>0.12000000000000011</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0.12000000000000011</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="10">
-        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H30)))</f>
-        <v>4.572341488740217E-2</v>
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H29)))</f>
+        <v>6.1610802083184521E-2</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
         <v>43</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>3.21</v>
       </c>
-      <c r="F7" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3.27</v>
+      <c r="F7" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.61</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>0.12000000000000011</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0.12000000000000011</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
         <v>55</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>1.71</v>
       </c>
-      <c r="F8" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4.09</v>
+      <c r="F8" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.19</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>9.9999999999997868E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
         <v>69</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>3.24</v>
       </c>
-      <c r="F9" s="6">
-        <v>3.81</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3.72</v>
+      <c r="F9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.54</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>8.9999999999999858E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
         <v>70</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>3.76</v>
       </c>
-      <c r="F10" s="6">
-        <v>4.01</v>
-      </c>
-      <c r="G10" s="6">
-        <v>4.01</v>
+      <c r="F10" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4.95</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
         <v>72</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>3.99</v>
       </c>
-      <c r="F11" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4.07</v>
+      <c r="F11" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5.25</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>2.9999999999999361E-2</v>
+        <v>-0.11000000000000032</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>2.9999999999999361E-2</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
         <v>76</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>3.88</v>
       </c>
-      <c r="F12" s="6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G12" s="6">
-        <v>4.3</v>
+      <c r="F12" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5.67</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="0"/>
-        <v>-0.14999999999999947</v>
+        <v>-0.13999999999999968</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0.14999999999999947</v>
+        <v>0.13999999999999968</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
         <v>78</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>4.59</v>
       </c>
-      <c r="F13" s="6">
-        <v>4.47</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4.43</v>
+      <c r="F13" s="8">
+        <v>6.68</v>
+      </c>
+      <c r="G13" s="8">
+        <v>6.64</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="0"/>
@@ -1146,298 +1203,298 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
         <v>82</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>3.4</v>
       </c>
-      <c r="F14" s="6">
-        <v>3.87</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3.84</v>
+      <c r="F14" s="8">
+        <v>5.01</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000249E-2</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8">
         <v>83</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>4.12</v>
       </c>
-      <c r="F15" s="6">
-        <v>3.81</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3.84</v>
+      <c r="F15" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4.67</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="0"/>
-        <v>-2.9999999999999805E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>2.9999999999999805E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
         <v>87</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="6">
-        <v>4.47</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4.5</v>
+      <c r="F16" s="8">
+        <v>6.29</v>
+      </c>
+      <c r="G16" s="8">
+        <v>6.27</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="0"/>
-        <v>-3.0000000000000249E-2</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
         <v>104</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>2.74</v>
       </c>
-      <c r="F17" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4.1500000000000004</v>
+      <c r="F17" s="8">
+        <v>5.32</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5.36</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="0"/>
-        <v>1.9999999999999574E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>1.9999999999999574E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6">
-        <v>109</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F18" s="6">
-        <v>4.28</v>
-      </c>
-      <c r="G18" s="6">
-        <v>4.2699999999999996</v>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>110</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3.21</v>
+      </c>
+      <c r="F18" s="8">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5.83</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="0"/>
-        <v>1.0000000000000675E-2</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>1.0000000000000675E-2</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6">
-        <v>110</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3.21</v>
-      </c>
-      <c r="F19" s="6">
-        <v>4.28</v>
-      </c>
-      <c r="G19" s="6">
-        <v>4.2300000000000004</v>
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>121</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.47</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5.33</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="0"/>
-        <v>4.9999999999999822E-2</v>
+        <v>0.13999999999999968</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>4.9999999999999822E-2</v>
+        <v>0.13999999999999968</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6">
-        <v>121</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F20" s="6">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="G20" s="6">
-        <v>4.18</v>
+      <c r="A20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8">
+        <v>125</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5.25</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="0"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-3.0000000000000249E-2</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>8.9999999999999858E-2</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6">
-        <v>125</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8">
+        <v>128</v>
+      </c>
+      <c r="E21" s="8">
         <v>3.92</v>
       </c>
-      <c r="F21" s="6">
-        <v>4.16</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4.17</v>
+      <c r="F21" s="8">
+        <v>5.55</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5.48</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-3</v>
+        <v>6.9999999999999396E-2</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>9.9999999999997868E-3</v>
+        <v>6.9999999999999396E-2</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6">
-        <v>128</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3.92</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4.21</v>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8">
+        <v>129</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.83</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5.81</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="0"/>
@@ -1452,274 +1509,275 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6">
-        <v>129</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4.34</v>
-      </c>
-      <c r="G23" s="6">
-        <v>4.33</v>
+      <c r="A23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>134</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3.91</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4.72</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>9.9999999999997868E-3</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6">
-        <v>134</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3.91</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="G24" s="6">
-        <v>3.83</v>
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8">
+        <v>137</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4.8</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>9.9999999999997868E-3</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6">
-        <v>137</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="F25" s="6">
-        <v>3.94</v>
-      </c>
-      <c r="G25" s="6">
-        <v>3.92</v>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>138</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.34</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5.32</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6">
-        <v>138</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3.89</v>
-      </c>
-      <c r="F26" s="6">
-        <v>4.04</v>
-      </c>
-      <c r="G26" s="6">
-        <v>4.01</v>
+      <c r="A26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>141</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3.59</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4.97</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000249E-2</v>
+        <v>1.0000000000000675E-2</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>3.0000000000000249E-2</v>
+        <v>1.0000000000000675E-2</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="6">
-        <v>141</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3.59</v>
-      </c>
-      <c r="F27" s="6">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4</v>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
+        <v>142</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5.32</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="0"/>
-        <v>1.9999999999999574E-2</v>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>1.9999999999999574E-2</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6">
-        <v>142</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.01</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4.07</v>
-      </c>
-      <c r="G28" s="6">
-        <v>4.1399999999999997</v>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
+        <v>145</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F28" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4.57</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="0"/>
-        <v>-6.9999999999999396E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
-        <v>6.9999999999999396E-2</v>
-      </c>
-      <c r="J28" s="6"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6">
-        <v>145</v>
-      </c>
-      <c r="E29" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3.85</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3.95</v>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
+        <v>146</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4.82</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4.8600000000000003</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6">
-        <v>146</v>
-      </c>
-      <c r="E30" s="6">
-        <v>3.67</v>
-      </c>
-      <c r="F30" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="G30" s="6">
-        <v>3.96</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000231E-2</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000231E-2</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="A30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>109</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5.84</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5.59</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
@@ -1732,6 +1790,1210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
+  <dimension ref="D3:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.5119049999999998E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <f>((E4-F4)/G4)*2</f>
+        <v>1.265873E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <f>SQRT(I4)</f>
+        <v>3.5579109038872798E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L4" s="20">
+        <f>J4*K4</f>
+        <v>2.8392129013020493E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M5" si="0">(F4/E4)*100</f>
+        <v>19.199595744680849</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.2450000000000002E-4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.6666670000000002E-5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <f>((E5-F5)/G5)*2</f>
+        <v>2.4522222000000001E-4</v>
+      </c>
+      <c r="J5" s="8">
+        <f>SQRT(I5)</f>
+        <v>1.5659572791107679E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L5" s="20">
+        <f>J5*K5</f>
+        <v>1.2496339087303928E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>13.349038869257951</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8.6749999999999994E-5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.4193040000000001E-5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <f>((E6-F6)/G6)*2</f>
+        <v>4.8371306666666665E-5</v>
+      </c>
+      <c r="J6" s="8">
+        <f>SQRT(I6)</f>
+        <v>6.9549483583033643E-3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.798</v>
+      </c>
+      <c r="L6" s="20">
+        <f>J6*K6</f>
+        <v>1.250499714822945E-2</v>
+      </c>
+      <c r="M6">
+        <f>(F6/E6)*100</f>
+        <v>16.360853025936599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="H2" s="8">
+        <f>F2-G2</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>ABS(F2-G2)</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H30" si="0">F3-G3</f>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I30" si="1">ABS(F3-G3)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.87</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.08</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.42</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.07</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="10">
+        <f>AVERAGE(I2:I30)</f>
+        <v>4.3103448275862009E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="10">
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H30)))</f>
+        <v>4.572341488740217E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.27</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.08</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.09</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>69</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.24</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>70</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.99</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4.07</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.88</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999947</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999947</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>78</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.59</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>82</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.87</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>83</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.12</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999805E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>104</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>110</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>121</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>125</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>128</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>129</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.34</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>134</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>137</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3.94</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>138</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.89</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
+        <v>141</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.59</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
+        <v>142</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4.07</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.9999999999999396E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999396E-2</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
+        <v>145</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3.85</v>
+      </c>
+      <c r="G29" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6">
+        <v>146</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3.97</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DDDED-A164-4C59-B098-93AF26B9E1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845BD5F-485C-43B2-9292-8DC5D8464ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
-    <sheet name="First Wing Area Female" sheetId="3" r:id="rId1"/>
-    <sheet name="FA index" sheetId="4" r:id="rId2"/>
+    <sheet name="FA index" sheetId="4" r:id="rId1"/>
+    <sheet name="First Wing Area Female" sheetId="3" r:id="rId2"/>
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId3"/>
-    <sheet name="Forceps" sheetId="2" r:id="rId4"/>
+    <sheet name="First Wing Area Male" sheetId="5" r:id="rId4"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +273,9 @@
     <t>Ala 1 area</t>
   </si>
   <si>
+    <t xml:space="preserve">Removidos </t>
+  </si>
+  <si>
     <t>Removidos para Normality</t>
   </si>
   <si>
@@ -297,6 +301,18 @@
   </si>
   <si>
     <t>First Wing Area Female</t>
+  </si>
+  <si>
+    <t>April/29/2002</t>
+  </si>
+  <si>
+    <t>Diciembre/17/2001</t>
+  </si>
+  <si>
+    <t>Octubre/26/2001</t>
+  </si>
+  <si>
+    <t>First Wing Area Male</t>
   </si>
 </sst>
 </file>
@@ -735,6 +751,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
+  <dimension ref="D3:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.5119049999999998E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <f>((E4-F4)/G4)*2</f>
+        <v>1.265873E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <f>SQRT(I4)</f>
+        <v>3.5579109038872798E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L4" s="20">
+        <f>J4*K4</f>
+        <v>2.8392129013020493E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M5" si="0">(F4/E4)*100</f>
+        <v>19.199595744680849</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.2450000000000002E-4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.6666670000000002E-5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <f>((E5-F5)/G5)*2</f>
+        <v>2.4522222000000001E-4</v>
+      </c>
+      <c r="J5" s="8">
+        <f>SQRT(I5)</f>
+        <v>1.5659572791107679E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L5" s="20">
+        <f>J5*K5</f>
+        <v>1.2496339087303928E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>13.349038869257951</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8.6749999999999994E-5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.4193040000000001E-5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <f>((E6-F6)/G6)*2</f>
+        <v>4.8371306666666665E-5</v>
+      </c>
+      <c r="J6" s="8">
+        <f>SQRT(I6)</f>
+        <v>6.9549483583033643E-3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.798</v>
+      </c>
+      <c r="L6" s="20">
+        <f>J6*K6</f>
+        <v>1.250499714822945E-2</v>
+      </c>
+      <c r="M6">
+        <f>(F6/E6)*100</f>
+        <v>16.360853025936599</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.9820000000000002E-5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.9946169999999999E-6</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8">
+        <f>((E7-F7)/G7)*2</f>
+        <v>2.4550255333333334E-5</v>
+      </c>
+      <c r="J7" s="8">
+        <f>SQRT(I7)</f>
+        <v>4.9548214229509155E-3</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.798</v>
+      </c>
+      <c r="L7" s="20">
+        <f>J7*K7</f>
+        <v>1.3863590341416663E-2</v>
+      </c>
+      <c r="M7">
+        <f>(F7/E7)*100</f>
+        <v>7.5203842290306371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22849E6-FD6D-443C-B032-872330CCF798}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -1776,7 +1981,7 @@
         <v>0.25</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -1785,156 +1990,6 @@
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
-  <dimension ref="D3:M6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4.5119049999999998E-4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8">
-        <f>((E4-F4)/G4)*2</f>
-        <v>1.265873E-3</v>
-      </c>
-      <c r="J4" s="8">
-        <f>SQRT(I4)</f>
-        <v>3.5579109038872798E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L4" s="20">
-        <f>J4*K4</f>
-        <v>2.8392129013020493E-2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M5" si="0">(F4/E4)*100</f>
-        <v>19.199595744680849</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.2450000000000002E-4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5.6666670000000002E-5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8">
-        <f>((E5-F5)/G5)*2</f>
-        <v>2.4522222000000001E-4</v>
-      </c>
-      <c r="J5" s="8">
-        <f>SQRT(I5)</f>
-        <v>1.5659572791107679E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L5" s="20">
-        <f>J5*K5</f>
-        <v>1.2496339087303928E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>13.349038869257951</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="8">
-        <v>8.6749999999999994E-5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1.4193040000000001E-5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <f>((E6-F6)/G6)*2</f>
-        <v>4.8371306666666665E-5</v>
-      </c>
-      <c r="J6" s="8">
-        <f>SQRT(I6)</f>
-        <v>6.9549483583033643E-3</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.798</v>
-      </c>
-      <c r="L6" s="20">
-        <f>J6*K6</f>
-        <v>1.250499714822945E-2</v>
-      </c>
-      <c r="M6">
-        <f>(F6/E6)*100</f>
-        <v>16.360853025936599</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2994,6 +3049,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E840F7-F60D-496B-8EEF-2AA3C30B13C4}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5.34</v>
+      </c>
+      <c r="G2" s="8">
+        <v>5.33</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" ref="H2:H28" si="0">F2-G2</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <f t="shared" ref="I2:I28" si="1">ABS(F2-G2)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4.91</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10">
+        <f>AVERAGE(I2:I32)</f>
+        <v>7.5806451612903225E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.07</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999396E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999396E-2</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="10">
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H32)))</f>
+        <v>8.8309622198847679E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.24</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.82</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3.77</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.01</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999954</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999954</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4.37</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000462E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8">
+        <v>56</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8">
+        <v>64</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8">
+        <v>65</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8">
+        <v>66</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
+        <v>67</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3.55</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8">
+        <v>80</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4.32</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.11000000000000032</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8">
+        <v>85</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4.55</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="8">
+        <v>94</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4.07</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8">
+        <v>106</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.40999999999999925</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.40999999999999925</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="8">
+        <v>107</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="8">
+        <v>120</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8">
+        <v>124</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8">
+        <v>126</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4.87</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="8">
+        <v>127</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000675E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8">
+        <v>131</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3.85</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8">
+        <v>133</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="G29" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" ref="H29:H32" si="2">F29-G29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I32" si="3">ABS(F29-G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="8">
+        <v>135</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="G31" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="8">
+        <v>139</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6.58</v>
+      </c>
+      <c r="G33" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="H33" s="8">
+        <f>F33-G33</f>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="I33" s="6">
+        <f>ABS(F33-G33)</f>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="N33" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8">
+        <v>99</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="G34" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H34" s="8">
+        <f>F34-G34</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I34" s="6">
+        <f>ABS(F34-G34)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="N34" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845BD5F-485C-43B2-9292-8DC5D8464ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE4B8E-8BA9-433A-B320-3EE9035EE020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="FA index" sheetId="4" r:id="rId1"/>
     <sheet name="First Wing Area Female" sheetId="3" r:id="rId2"/>
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId3"/>
     <sheet name="First Wing Area Male" sheetId="5" r:id="rId4"/>
-    <sheet name="Forceps" sheetId="2" r:id="rId5"/>
+    <sheet name="First Wing Lenght Male" sheetId="6" r:id="rId5"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -303,6 +304,9 @@
     <t>First Wing Area Female</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>April/29/2002</t>
   </si>
   <si>
@@ -313,12 +317,21 @@
   </si>
   <si>
     <t>First Wing Area Male</t>
+  </si>
+  <si>
+    <t>First Wing Lenght Female</t>
+  </si>
+  <si>
+    <t>First Wing Lenght Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,8 +447,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,18 +767,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
-  <dimension ref="D3:M7"/>
+  <dimension ref="D3:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>80</v>
       </c>
@@ -788,17 +807,25 @@
       <c r="L3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="8"/>
+      <c r="N3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
       <c r="E4" s="8">
-        <v>2.3500000000000001E-3</v>
+        <v>8.6749999999999994E-5</v>
       </c>
       <c r="F4" s="8">
-        <v>4.5119049999999998E-4</v>
+        <v>1.4193040000000001E-5</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
@@ -808,33 +835,39 @@
       </c>
       <c r="I4" s="8">
         <f>((E4-F4)/G4)*2</f>
-        <v>1.265873E-3</v>
+        <v>4.8371306666666665E-5</v>
       </c>
       <c r="J4" s="8">
         <f>SQRT(I4)</f>
-        <v>3.5579109038872798E-2</v>
+        <v>6.9549483583033643E-3</v>
       </c>
       <c r="K4" s="8">
-        <v>0.79800000000000004</v>
+        <v>1.798</v>
       </c>
       <c r="L4" s="20">
         <f>J4*K4</f>
-        <v>2.8392129013020493E-2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M5" si="0">(F4/E4)*100</f>
-        <v>19.199595744680849</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>36</v>
+        <v>1.250499714822945E-2</v>
+      </c>
+      <c r="M4" s="20">
+        <f>(F4/E4)*100</f>
+        <v>16.360853025936599</v>
+      </c>
+      <c r="N4" s="20">
+        <v>6.5000000000000085E-2</v>
+      </c>
+      <c r="O4" s="20">
+        <v>6.1610802083184521E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D5" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="E5" s="8">
-        <v>4.2450000000000002E-4</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F5" s="8">
-        <v>5.6666670000000002E-5</v>
+        <v>4.5119049999999998E-4</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
@@ -844,33 +877,39 @@
       </c>
       <c r="I5" s="8">
         <f>((E5-F5)/G5)*2</f>
-        <v>2.4522222000000001E-4</v>
+        <v>1.265873E-3</v>
       </c>
       <c r="J5" s="8">
         <f>SQRT(I5)</f>
-        <v>1.5659572791107679E-2</v>
+        <v>3.5579109038872798E-2</v>
       </c>
       <c r="K5" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L5" s="20">
         <f>J5*K5</f>
-        <v>1.2496339087303928E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>13.349038869257951</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+        <v>2.8392129013020493E-2</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" ref="M5" si="0">(F5/E5)*100</f>
+        <v>19.199595744680849</v>
+      </c>
+      <c r="N5" s="20">
+        <v>4.3103448275862009E-2</v>
+      </c>
+      <c r="O5" s="20">
+        <v>4.572341488740217E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E6" s="8">
-        <v>8.6749999999999994E-5</v>
+        <v>3.9820000000000002E-5</v>
       </c>
       <c r="F6" s="8">
-        <v>1.4193040000000001E-5</v>
+        <v>2.9946169999999999E-6</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -880,33 +919,39 @@
       </c>
       <c r="I6" s="8">
         <f>((E6-F6)/G6)*2</f>
-        <v>4.8371306666666665E-5</v>
+        <v>2.4550255333333334E-5</v>
       </c>
       <c r="J6" s="8">
         <f>SQRT(I6)</f>
-        <v>6.9549483583033643E-3</v>
+        <v>4.9548214229509155E-3</v>
       </c>
       <c r="K6" s="8">
-        <v>1.798</v>
+        <v>2.798</v>
       </c>
       <c r="L6" s="20">
         <f>J6*K6</f>
-        <v>1.250499714822945E-2</v>
-      </c>
-      <c r="M6">
+        <v>1.3863590341416663E-2</v>
+      </c>
+      <c r="M6" s="20">
         <f>(F6/E6)*100</f>
-        <v>16.360853025936599</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
+        <v>7.5203842290306371</v>
+      </c>
+      <c r="N6" s="20">
+        <v>7.5806451612903225E-2</v>
+      </c>
+      <c r="O6" s="20">
+        <v>8.8309622198847679E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8">
-        <v>3.9820000000000002E-5</v>
+        <v>3.3249999999999998E-3</v>
       </c>
       <c r="F7" s="8">
-        <v>2.9946169999999999E-6</v>
+        <v>6.522222E-4</v>
       </c>
       <c r="G7" s="8">
         <v>3</v>
@@ -916,26 +961,75 @@
       </c>
       <c r="I7" s="8">
         <f>((E7-F7)/G7)*2</f>
-        <v>2.4550255333333334E-5</v>
+        <v>1.7818518666666665E-3</v>
       </c>
       <c r="J7" s="8">
         <f>SQRT(I7)</f>
-        <v>4.9548214229509155E-3</v>
+        <v>4.2211987239013829E-2</v>
       </c>
       <c r="K7" s="8">
-        <v>2.798</v>
+        <v>3.798</v>
       </c>
       <c r="L7" s="20">
         <f>J7*K7</f>
-        <v>1.3863590341416663E-2</v>
-      </c>
-      <c r="M7">
+        <v>0.16032112753377453</v>
+      </c>
+      <c r="M7" s="20">
         <f>(F7/E7)*100</f>
-        <v>7.5203842290306371</v>
+        <v>19.615705263157896</v>
+      </c>
+      <c r="N7" s="20">
+        <v>6.3030303030303061E-2</v>
+      </c>
+      <c r="O7" s="20">
+        <v>6.6156638555779149E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.2450000000000002E-4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5.6666670000000002E-5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
+        <f>((E8-F8)/G8)*2</f>
+        <v>2.4522222000000001E-4</v>
+      </c>
+      <c r="J8" s="8">
+        <f>SQRT(I8)</f>
+        <v>1.5659572791107679E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L8" s="20">
+        <f>J8*K8</f>
+        <v>1.2496339087303928E-2</v>
+      </c>
+      <c r="M8" s="20">
+        <f>(F8/E8)*100</f>
+        <v>13.349038869257951</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1.2333333333333333E-2</v>
+      </c>
+      <c r="O8" s="20">
+        <v>1.3034093595723066E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -943,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22849E6-FD6D-443C-B032-872330CCF798}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,7 +2093,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,7 +3147,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3280,7 +3374,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -3552,7 +3646,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -4152,7 +4246,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
@@ -4233,11 +4327,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48A4FC-2C44-4E9E-82E3-A81B545B1D23}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.46</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="H2" s="8">
+        <f>F2-G2</f>
+        <v>-0.24000000000000021</v>
+      </c>
+      <c r="I2" s="6">
+        <f>ABS(F2-G2)</f>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H30" si="0">F3-G3</f>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I30" si="1">ABS(F3-G3)</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.12</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.64</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="10">
+        <f>AVERAGE(I2:I34)</f>
+        <v>6.3030303030303061E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="10">
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H34)))</f>
+        <v>6.6156638555779149E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.53</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.94</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.46</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.999999999999984E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.87</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.94</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4.07</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000034</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13000000000000034</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.88</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1599999999999997</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1599999999999997</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <v>65</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.03</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.66</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3.69</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6">
+        <v>67</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3.82</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999999627E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999627E-2</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>85</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3.79</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.61</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="6">
+        <v>99</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3.85</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6">
+        <v>106</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6">
+        <v>107</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6">
+        <v>120</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="6">
+        <v>124</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6">
+        <v>126</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3.94</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6">
+        <v>127</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="G29" s="6">
+        <v>3.79</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6">
+        <v>131</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3.87</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30:H34" si="2">F30-G30</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30:I34" si="3">ABS(F30-G30)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6">
+        <v>133</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.18000000000000016</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>0.18000000000000016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6">
+        <v>135</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6">
+        <v>136</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4.03</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="6">
+        <v>139</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3.66</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R6" sqref="R6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE4B8E-8BA9-433A-B320-3EE9035EE020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DF9EDC-CBE1-41CF-B133-0EB1743AD988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId3"/>
     <sheet name="First Wing Area Male" sheetId="5" r:id="rId4"/>
     <sheet name="First Wing Lenght Male" sheetId="6" r:id="rId5"/>
-    <sheet name="Forceps" sheetId="2" r:id="rId6"/>
+    <sheet name="Hind Wing Area Female" sheetId="7" r:id="rId6"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="104">
   <si>
     <t>Fecha</t>
   </si>
@@ -323,6 +324,33 @@
   </si>
   <si>
     <t>First Wing Lenght Male</t>
+  </si>
+  <si>
+    <t>Ala 2 area</t>
+  </si>
+  <si>
+    <t>Agosto/9/2002</t>
+  </si>
+  <si>
+    <t>Septiembre/13/2002</t>
+  </si>
+  <si>
+    <t>Marzo/29/2002</t>
+  </si>
+  <si>
+    <t>Enero/20/2003</t>
+  </si>
+  <si>
+    <t>Octubre/7/2002</t>
+  </si>
+  <si>
+    <t>Junio/01/2002</t>
+  </si>
+  <si>
+    <t>Junio/14/2002</t>
+  </si>
+  <si>
+    <t>Used for Normality and One sample t-test</t>
   </si>
 </sst>
 </file>
@@ -330,7 +358,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -395,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -429,9 +457,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -450,9 +475,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,7 +799,7 @@
   <dimension ref="D3:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,16 +833,16 @@
       <c r="K3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -844,23 +873,23 @@
       <c r="K4" s="8">
         <v>1.798</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <f>J4*K4</f>
         <v>1.250499714822945E-2</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <f>(F4/E4)*100</f>
         <v>16.360853025936599</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>6.5000000000000085E-2</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>6.1610802083184521E-2</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="8">
@@ -886,18 +915,18 @@
       <c r="K5" s="8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f>J5*K5</f>
         <v>2.8392129013020493E-2</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <f t="shared" ref="M5" si="0">(F5/E5)*100</f>
         <v>19.199595744680849</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>4.3103448275862009E-2</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>4.572341488740217E-2</v>
       </c>
     </row>
@@ -928,18 +957,18 @@
       <c r="K6" s="8">
         <v>2.798</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f>J6*K6</f>
         <v>1.3863590341416663E-2</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <f>(F6/E6)*100</f>
         <v>7.5203842290306371</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>7.5806451612903225E-2</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>8.8309622198847679E-2</v>
       </c>
     </row>
@@ -970,18 +999,18 @@
       <c r="K7" s="8">
         <v>3.798</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f>J7*K7</f>
         <v>0.16032112753377453</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <f>(F7/E7)*100</f>
         <v>19.615705263157896</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>6.3030303030303061E-2</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>6.6156638555779149E-2</v>
       </c>
     </row>
@@ -1012,18 +1041,18 @@
       <c r="K8" s="8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f>J8*K8</f>
         <v>1.2496339087303928E-2</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <f>(F8/E8)*100</f>
         <v>13.349038869257951</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>1.2333333333333333E-2</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>1.3034093595723066E-2</v>
       </c>
     </row>
@@ -1037,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22849E6-FD6D-443C-B032-872330CCF798}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,10 +1092,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1107,7 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1087,10 +1116,10 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="14">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14">
         <v>4.1900000000000004</v>
       </c>
       <c r="F2" s="8">
@@ -1112,7 +1141,7 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1146,7 +1175,7 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1180,7 +1209,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1222,7 +1251,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1264,7 +1293,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1298,7 +1327,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1332,7 +1361,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1362,11 +1391,15 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1400,7 +1433,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1434,7 +1467,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1468,7 +1501,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1502,7 +1535,7 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1536,7 +1569,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1570,7 +1603,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1604,7 +1637,7 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1638,7 +1671,7 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1672,7 +1705,7 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1706,7 +1739,7 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1740,7 +1773,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1774,7 +1807,7 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1808,7 +1841,7 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1842,7 +1875,7 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1876,7 +1909,7 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1910,7 +1943,7 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1944,7 +1977,7 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1978,7 +2011,7 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2011,7 +2044,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2045,7 +2078,7 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2066,15 +2099,15 @@
       <c r="G30" s="8">
         <v>5.59</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="17" t="s">
         <v>79</v>
       </c>
       <c r="K30" s="6"/>
@@ -2093,7 +2126,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,10 +2151,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2417,8 +2450,12 @@
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -3147,7 +3184,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3172,10 +3209,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3187,7 +3224,7 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3221,7 +3258,7 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3255,7 +3292,7 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3297,7 +3334,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3339,7 +3376,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3373,7 +3410,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3407,7 +3444,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -3441,7 +3478,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -3471,11 +3508,15 @@
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -3509,7 +3550,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -3543,7 +3584,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3577,7 +3618,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -3611,7 +3652,7 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3645,7 +3686,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -3679,7 +3720,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -3713,7 +3754,7 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3747,7 +3788,7 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3781,7 +3822,7 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3849,7 +3890,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -3883,7 +3924,7 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3917,7 +3958,7 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3951,7 +3992,7 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3985,7 +4026,7 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -4019,7 +4060,7 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4053,7 +4094,7 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4087,7 +4128,7 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4121,7 +4162,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -4152,7 +4193,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4183,7 +4224,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -4214,7 +4255,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -4245,7 +4286,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4277,12 +4318,12 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -4314,7 +4355,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4331,7 +4372,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4356,10 +4397,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4427,11 +4468,11 @@
         <v>4.38</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H30" si="0">F3-G3</f>
+        <f t="shared" ref="H3:H29" si="0">F3-G3</f>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I30" si="1">ABS(F3-G3)</f>
+        <f t="shared" ref="I3:I29" si="1">ABS(F3-G3)</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="J3" s="6"/>
@@ -4655,8 +4696,12 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -5367,7 +5412,7 @@
         <f t="shared" ref="I30:I34" si="3">ABS(F30-G30)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="17" t="s">
         <v>88</v>
       </c>
       <c r="K30" s="6"/>
@@ -5506,6 +5551,1433 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D86C11-9ED2-4CC9-8069-35181E2F442E}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H2" s="8">
+        <f>F2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>ABS(F2-G2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H28" si="0">F3-G3</f>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I28" si="1">ABS(F3-G3)</f>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.42</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="10">
+        <f>AVERAGE(I2:I41)</f>
+        <v>5.2499999999999995E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="10">
+        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H41)))</f>
+        <v>5.8242646944287506E-3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.31</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.73</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>69</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3.24</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>70</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.76</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
+        <v>74</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.97</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8">
+        <v>76</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>82</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>84</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3.16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>87</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8">
+        <v>91</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8">
+        <v>92</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8">
+        <v>93</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8">
+        <v>96</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>97</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>104</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
+        <v>110</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3.21</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
+        <v>111</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
+        <v>112</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" ref="H29:H41" si="2">F29-G29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I41" si="3">ABS(F29-G29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>116</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>125</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8">
+        <v>128</v>
+      </c>
+      <c r="E32" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8">
+        <v>129</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <v>137</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8">
+        <v>138</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8">
+        <v>141</v>
+      </c>
+      <c r="E36" s="8">
+        <v>3.59</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8">
+        <v>142</v>
+      </c>
+      <c r="E37" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8">
+        <v>143</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8">
+        <v>144</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8">
+        <v>145</v>
+      </c>
+      <c r="E40" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <v>146</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="15">
+        <v>109</v>
+      </c>
+      <c r="E42" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="H42" s="15">
+        <f>F42-G42</f>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="I42" s="15">
+        <f>ABS(F42-G42)</f>
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>
@@ -5535,10 +7007,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="20"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -5548,10 +7020,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DF9EDC-CBE1-41CF-B133-0EB1743AD988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02571892-5627-4FDE-8E37-A6B4071F6304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" activeTab="5" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="FA index" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="104">
   <si>
     <t>Fecha</t>
   </si>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -478,10 +478,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
   <dimension ref="D3:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,10 +853,10 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="22">
         <v>8.6749999999999994E-5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="22">
         <v>1.4193040000000001E-5</v>
       </c>
       <c r="G4" s="8">
@@ -1092,10 +1095,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2151,10 +2154,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3209,10 +3212,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4397,10 +4400,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5554,8 +5557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D86C11-9ED2-4CC9-8069-35181E2F442E}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5576,10 +5579,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5946,7 +5949,9 @@
         <f t="shared" si="1"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
@@ -6935,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
@@ -7007,10 +7012,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -7020,10 +7025,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02571892-5627-4FDE-8E37-A6B4071F6304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8BD5D-306C-463A-A7C5-EC02F5747639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" activeTab="5" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="FA index" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="104">
   <si>
     <t>Fecha</t>
   </si>
@@ -479,10 +479,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
-  <dimension ref="D3:O8"/>
+  <dimension ref="D3:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
         <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
         <v>84</v>
@@ -853,11 +853,11 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="22">
-        <v>8.6749999999999994E-5</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1.4193040000000001E-5</v>
+      <c r="E4" s="21">
+        <v>3.3640000000000003E-2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4.7872430000000001E-3</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
@@ -867,28 +867,28 @@
       </c>
       <c r="I4" s="8">
         <f>((E4-F4)/G4)*2</f>
-        <v>4.8371306666666665E-5</v>
+        <v>1.9235171333333335E-2</v>
       </c>
       <c r="J4" s="8">
         <f>SQRT(I4)</f>
-        <v>6.9549483583033643E-3</v>
+        <v>0.13869092015461335</v>
       </c>
       <c r="K4" s="8">
-        <v>1.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="L4" s="19">
         <f>J4*K4</f>
-        <v>1.250499714822945E-2</v>
+        <v>0.11067535428338146</v>
       </c>
       <c r="M4" s="19">
         <f>(F4/E4)*100</f>
-        <v>16.360853025936599</v>
+        <v>14.230805588585016</v>
       </c>
       <c r="N4" s="19">
         <v>6.5000000000000085E-2</v>
       </c>
       <c r="O4" s="19">
-        <v>6.1610802083184521E-2</v>
+        <v>6.16108020831845E-2</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
@@ -958,11 +958,11 @@
         <v>4.9548214229509155E-3</v>
       </c>
       <c r="K6" s="8">
-        <v>2.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="L6" s="19">
         <f>J6*K6</f>
-        <v>1.3863590341416663E-2</v>
+        <v>3.9539474955148307E-3</v>
       </c>
       <c r="M6" s="19">
         <f>(F6/E6)*100</f>
@@ -1000,11 +1000,11 @@
         <v>4.2211987239013829E-2</v>
       </c>
       <c r="K7" s="8">
-        <v>3.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="L7" s="19">
         <f>J7*K7</f>
-        <v>0.16032112753377453</v>
+        <v>3.3685165816733038E-2</v>
       </c>
       <c r="M7" s="19">
         <f>(F7/E7)*100</f>
@@ -1057,6 +1057,34 @@
       </c>
       <c r="O8" s="19">
         <v>1.3034093595723066E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.249366274437995</v>
+      </c>
+      <c r="H14">
+        <v>14.230805588585</v>
+      </c>
+      <c r="I14">
+        <v>6.5000000000000085E-2</v>
+      </c>
+      <c r="J14">
+        <v>6.16108020831845E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1098,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,10 +1123,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2154,10 +2182,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3212,10 +3240,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4400,10 +4428,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5557,7 +5585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D86C11-9ED2-4CC9-8069-35181E2F442E}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5579,10 +5607,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -7012,10 +7040,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -7025,10 +7053,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8BD5D-306C-463A-A7C5-EC02F5747639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DCCE3-26A0-4C33-A12D-36AFA49C837A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="104">
   <si>
     <t>Fecha</t>
   </si>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -483,6 +483,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
-  <dimension ref="D3:O14"/>
+  <dimension ref="D3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G11" sqref="G11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,33 +1063,85 @@
         <v>1.3034093595723066E-2</v>
       </c>
     </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>0.249366274437995</v>
-      </c>
-      <c r="H14">
-        <v>14.230805588585</v>
-      </c>
-      <c r="I14">
-        <v>6.5000000000000085E-2</v>
-      </c>
-      <c r="J14">
-        <v>6.16108020831845E-2</v>
-      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,7 +3271,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4403,7 +4459,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DCCE3-26A0-4C33-A12D-36AFA49C837A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507F733-9CD0-4A37-91B4-A5CD5C1B7474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" activeTab="2" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="FA index" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="First Wing Lenght Female" sheetId="1" r:id="rId3"/>
     <sheet name="First Wing Area Male" sheetId="5" r:id="rId4"/>
     <sheet name="First Wing Lenght Male" sheetId="6" r:id="rId5"/>
-    <sheet name="Hind Wing Area Female" sheetId="7" r:id="rId6"/>
-    <sheet name="Forceps" sheetId="2" r:id="rId7"/>
+    <sheet name="Forceps" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="98">
   <si>
     <t>Fecha</t>
   </si>
@@ -326,31 +325,13 @@
     <t>First Wing Lenght Male</t>
   </si>
   <si>
-    <t>Ala 2 area</t>
-  </si>
-  <si>
-    <t>Agosto/9/2002</t>
-  </si>
-  <si>
-    <t>Septiembre/13/2002</t>
-  </si>
-  <si>
-    <t>Marzo/29/2002</t>
-  </si>
-  <si>
-    <t>Enero/20/2003</t>
-  </si>
-  <si>
-    <t>Octubre/7/2002</t>
-  </si>
-  <si>
-    <t>Junio/01/2002</t>
-  </si>
-  <si>
-    <t>Junio/14/2002</t>
-  </si>
-  <si>
     <t>Used for Normality and One sample t-test</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>%FA</t>
   </si>
 </sst>
 </file>
@@ -423,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -478,15 +459,14 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
   <dimension ref="D3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11:L20"/>
     </sheetView>
   </sheetViews>
@@ -857,10 +837,10 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>3.3640000000000003E-2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>4.7872430000000001E-3</v>
       </c>
       <c r="G4" s="8">
@@ -1064,84 +1044,84 @@
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,7 +1134,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,10 +1159,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1550,8 +1530,12 @@
         <v>0.11000000000000032</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -1584,8 +1568,14 @@
         <v>0.13999999999999968</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12">
+        <f>AVERAGE(F2:G29)</f>
+        <v>5.1610714285714296</v>
+      </c>
+      <c r="L12">
+        <f>(L5/K12)*100</f>
+        <v>1.2594284132585996</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -1618,8 +1608,6 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -2212,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,10 +2226,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2541,7 +2529,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2609,8 +2597,12 @@
         <v>2.9999999999999361E-2</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -2643,8 +2635,14 @@
         <v>0.14999999999999947</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12">
+        <f>AVERAGE(F2:G30)</f>
+        <v>4.0467241379310339</v>
+      </c>
+      <c r="L12">
+        <f>(L5/K12)*100</f>
+        <v>1.0651442205274582</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2677,8 +2675,6 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -3270,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E840F7-F60D-496B-8EEF-2AA3C30B13C4}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,10 +3292,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3667,8 +3663,12 @@
         <v>2.0000000000000462E-2</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -3701,8 +3701,14 @@
         <v>0.16000000000000014</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12">
+        <f>AVERAGE(F2:G32)</f>
+        <v>4.4137096774193552</v>
+      </c>
+      <c r="L12">
+        <f>(L4/K12)*100</f>
+        <v>1.7175223826055179</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -3735,8 +3741,6 @@
         <v>0.12000000000000011</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -4459,7 +4463,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="K13" sqref="K13:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4484,10 +4488,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -4855,8 +4859,12 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -4889,8 +4897,14 @@
         <v>6.999999999999984E-2</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12">
+        <f>AVERAGE(F2:G34)</f>
+        <v>3.7906060606060605</v>
+      </c>
+      <c r="L12">
+        <f>(L5/K12)*100</f>
+        <v>1.6628027819969631</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -4923,8 +4937,6 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -5638,1440 +5650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D86C11-9ED2-4CC9-8069-35181E2F442E}">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="14">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H2" s="8">
-        <f>F2-G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <f>ABS(F2-G2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.87</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H28" si="0">F3-G3</f>
-        <v>-9.9999999999999811E-3</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I28" si="1">ABS(F3-G3)</f>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3.42</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999811E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.99</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="10">
-        <f>AVERAGE(I2:I41)</f>
-        <v>5.2499999999999995E-3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3.86</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999811E-3</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="10">
-        <f xml:space="preserve"> 0.798*(SQRT(_xlfn.VAR.S(H2:H41)))</f>
-        <v>5.8242646944287506E-3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
-        <v>48</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3.31</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
-        <v>52</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3.92</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.73</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>69</v>
-      </c>
-      <c r="E10" s="8">
-        <v>3.24</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>70</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3.76</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8">
-        <v>72</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3.99</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8">
-        <v>73</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3.86</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <v>74</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.97</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8">
-        <v>76</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3.88</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8">
-        <v>77</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.28</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8">
-        <v>82</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3.16</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
-        <v>87</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8">
-        <v>91</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3.81</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.999999999999995E-3</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8">
-        <v>92</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8">
-        <v>93</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
-        <v>95</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8">
-        <v>96</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4.21</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8">
-        <v>3.97</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8">
-        <v>104</v>
-      </c>
-      <c r="E26" s="8">
-        <v>2.74</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8">
-        <v>110</v>
-      </c>
-      <c r="E27" s="8">
-        <v>3.21</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999811E-3</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8">
-        <v>111</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3.93</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8">
-        <v>112</v>
-      </c>
-      <c r="E29" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" ref="H29:H41" si="2">F29-G29</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" ref="I29:I41" si="3">ABS(F29-G29)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8">
-        <v>116</v>
-      </c>
-      <c r="E30" s="8">
-        <v>4.08</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
-        <v>125</v>
-      </c>
-      <c r="E31" s="8">
-        <v>3.92</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8">
-        <v>128</v>
-      </c>
-      <c r="E32" s="8">
-        <v>3.92</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8">
-        <v>129</v>
-      </c>
-      <c r="E33" s="8">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8">
-        <v>137</v>
-      </c>
-      <c r="E34" s="8">
-        <v>4.3</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8">
-        <v>138</v>
-      </c>
-      <c r="E35" s="8">
-        <v>3.89</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8">
-        <v>141</v>
-      </c>
-      <c r="E36" s="8">
-        <v>3.59</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8">
-        <v>142</v>
-      </c>
-      <c r="E37" s="8">
-        <v>4.01</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8">
-        <v>143</v>
-      </c>
-      <c r="E38" s="8">
-        <v>3.86</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="2"/>
-        <v>-9.9999999999999811E-3</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999811E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8">
-        <v>144</v>
-      </c>
-      <c r="E39" s="8">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="I39" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8">
-        <v>145</v>
-      </c>
-      <c r="E40" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8">
-        <v>146</v>
-      </c>
-      <c r="E41" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="15">
-        <v>109</v>
-      </c>
-      <c r="E42" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G42" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="H42" s="15">
-        <f>F42-G42</f>
-        <v>-1.999999999999999E-2</v>
-      </c>
-      <c r="I42" s="15">
-        <f>ABS(F42-G42)</f>
-        <v>1.999999999999999E-2</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C284F37-8B98-45DD-9A8D-5558081EB2A2}">
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R7"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7096,10 +5679,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -7109,10 +5692,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
@@ -7569,6 +6152,12 @@
         <f t="shared" si="1"/>
         <v>3.999999999999998E-2</v>
       </c>
+      <c r="Q11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -7612,6 +6201,14 @@
       <c r="O12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(L2:M31)</f>
+        <v>0.45016666666666671</v>
+      </c>
+      <c r="R12">
+        <f>(R6/Q12)*100</f>
+        <v>2.7397260273972601</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507F733-9CD0-4A37-91B4-A5CD5C1B7474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E021CBF-91BF-40DD-AFAE-5F746AD976DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" activeTab="2" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
   <sheets>
     <sheet name="FA index" sheetId="4" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE798CC-E54B-4234-8F9E-A8CF53855C42}">
   <dimension ref="D3:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,13 +835,13 @@
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3.3640000000000003E-2</v>
-      </c>
-      <c r="F4" s="20">
-        <v>4.7872430000000001E-3</v>
+        <v>92</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.9820000000000002E-5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.9946169999999999E-6</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
@@ -851,39 +851,39 @@
       </c>
       <c r="I4" s="8">
         <f>((E4-F4)/G4)*2</f>
-        <v>1.9235171333333335E-2</v>
+        <v>2.4550255333333334E-5</v>
       </c>
       <c r="J4" s="8">
         <f>SQRT(I4)</f>
-        <v>0.13869092015461335</v>
+        <v>4.9548214229509155E-3</v>
       </c>
       <c r="K4" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L4" s="19">
         <f>J4*K4</f>
-        <v>0.11067535428338146</v>
+        <v>3.9539474955148307E-3</v>
       </c>
       <c r="M4" s="19">
         <f>(F4/E4)*100</f>
-        <v>14.230805588585016</v>
+        <v>7.5203842290306371</v>
       </c>
       <c r="N4" s="19">
-        <v>6.5000000000000085E-2</v>
+        <v>7.5806451612903225E-2</v>
       </c>
       <c r="O4" s="19">
-        <v>6.16108020831845E-2</v>
+        <v>8.8309622198847679E-2</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="16" t="s">
-        <v>93</v>
+      <c r="D5" t="s">
+        <v>94</v>
       </c>
       <c r="E5" s="8">
-        <v>2.3500000000000001E-3</v>
+        <v>3.3249999999999998E-3</v>
       </c>
       <c r="F5" s="8">
-        <v>4.5119049999999998E-4</v>
+        <v>6.522222E-4</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
@@ -893,39 +893,39 @@
       </c>
       <c r="I5" s="8">
         <f>((E5-F5)/G5)*2</f>
-        <v>1.265873E-3</v>
+        <v>1.7818518666666665E-3</v>
       </c>
       <c r="J5" s="8">
         <f>SQRT(I5)</f>
-        <v>3.5579109038872798E-2</v>
+        <v>4.2211987239013829E-2</v>
       </c>
       <c r="K5" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L5" s="19">
         <f>J5*K5</f>
-        <v>2.8392129013020493E-2</v>
+        <v>3.3685165816733038E-2</v>
       </c>
       <c r="M5" s="19">
-        <f t="shared" ref="M5" si="0">(F5/E5)*100</f>
-        <v>19.199595744680849</v>
+        <f>(F5/E5)*100</f>
+        <v>19.615705263157896</v>
       </c>
       <c r="N5" s="19">
-        <v>4.3103448275862009E-2</v>
+        <v>6.3030303030303061E-2</v>
       </c>
       <c r="O5" s="19">
-        <v>4.572341488740217E-2</v>
+        <v>6.6156638555779149E-2</v>
       </c>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8">
-        <v>3.9820000000000002E-5</v>
+        <v>4.2450000000000002E-4</v>
       </c>
       <c r="F6" s="8">
-        <v>2.9946169999999999E-6</v>
+        <v>5.6666670000000002E-5</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -935,39 +935,39 @@
       </c>
       <c r="I6" s="8">
         <f>((E6-F6)/G6)*2</f>
-        <v>2.4550255333333334E-5</v>
+        <v>2.4522222000000001E-4</v>
       </c>
       <c r="J6" s="8">
         <f>SQRT(I6)</f>
-        <v>4.9548214229509155E-3</v>
+        <v>1.5659572791107679E-2</v>
       </c>
       <c r="K6" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L6" s="19">
         <f>J6*K6</f>
-        <v>3.9539474955148307E-3</v>
+        <v>1.2496339087303928E-2</v>
       </c>
       <c r="M6" s="19">
         <f>(F6/E6)*100</f>
-        <v>7.5203842290306371</v>
+        <v>13.349038869257951</v>
       </c>
       <c r="N6" s="19">
-        <v>7.5806451612903225E-2</v>
+        <v>1.2333333333333333E-2</v>
       </c>
       <c r="O6" s="19">
-        <v>8.8309622198847679E-2</v>
+        <v>1.3034093595723066E-2</v>
       </c>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3.3249999999999998E-3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6.522222E-4</v>
+        <v>87</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3.3640000000000003E-2</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4.7872430000000001E-3</v>
       </c>
       <c r="G7" s="8">
         <v>3</v>
@@ -977,39 +977,39 @@
       </c>
       <c r="I7" s="8">
         <f>((E7-F7)/G7)*2</f>
-        <v>1.7818518666666665E-3</v>
+        <v>1.9235171333333335E-2</v>
       </c>
       <c r="J7" s="8">
         <f>SQRT(I7)</f>
-        <v>4.2211987239013829E-2</v>
+        <v>0.13869092015461335</v>
       </c>
       <c r="K7" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L7" s="19">
         <f>J7*K7</f>
-        <v>3.3685165816733038E-2</v>
+        <v>0.11067535428338146</v>
       </c>
       <c r="M7" s="19">
         <f>(F7/E7)*100</f>
-        <v>19.615705263157896</v>
+        <v>14.230805588585016</v>
       </c>
       <c r="N7" s="19">
-        <v>6.3030303030303061E-2</v>
+        <v>6.5000000000000085E-2</v>
       </c>
       <c r="O7" s="19">
-        <v>6.6156638555779149E-2</v>
+        <v>6.16108020831845E-2</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>36</v>
+      <c r="D8" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="E8" s="8">
-        <v>4.2450000000000002E-4</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F8" s="8">
-        <v>5.6666670000000002E-5</v>
+        <v>4.5119049999999998E-4</v>
       </c>
       <c r="G8" s="8">
         <v>3</v>
@@ -1019,28 +1019,28 @@
       </c>
       <c r="I8" s="8">
         <f>((E8-F8)/G8)*2</f>
-        <v>2.4522222000000001E-4</v>
+        <v>1.265873E-3</v>
       </c>
       <c r="J8" s="8">
         <f>SQRT(I8)</f>
-        <v>1.5659572791107679E-2</v>
+        <v>3.5579109038872798E-2</v>
       </c>
       <c r="K8" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L8" s="19">
         <f>J8*K8</f>
-        <v>1.2496339087303928E-2</v>
+        <v>2.8392129013020493E-2</v>
       </c>
       <c r="M8" s="19">
-        <f>(F8/E8)*100</f>
-        <v>13.349038869257951</v>
+        <f t="shared" ref="M8" si="0">(F8/E8)*100</f>
+        <v>19.199595744680849</v>
       </c>
       <c r="N8" s="19">
-        <v>1.2333333333333333E-2</v>
+        <v>4.3103448275862009E-2</v>
       </c>
       <c r="O8" s="19">
-        <v>1.3034093595723066E-2</v>
+        <v>4.572341488740217E-2</v>
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.3">
@@ -2200,7 +2200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A07DE2-C6B7-448C-BEB1-48A395FE26B3}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\32- Gutierrez-F &amp; Ramirez 2020 PeerJ\mayfly_morphometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E021CBF-91BF-40DD-AFAE-5F746AD976DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BB59C-5E38-4A85-984B-3FE65904E390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{27B22932-8478-4B2F-8FDF-89765D522813}"/>
   </bookViews>
@@ -459,14 +459,14 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +786,7 @@
   <dimension ref="D3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +794,7 @@
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
@@ -837,10 +838,10 @@
       <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="21">
         <v>3.9820000000000002E-5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="21">
         <v>2.9946169999999999E-6</v>
       </c>
       <c r="G4" s="8">
@@ -879,10 +880,10 @@
       <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="21">
         <v>3.3249999999999998E-3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="21">
         <v>6.522222E-4</v>
       </c>
       <c r="G5" s="8">
@@ -921,10 +922,10 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="21">
         <v>4.2450000000000002E-4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="21">
         <v>5.6666670000000002E-5</v>
       </c>
       <c r="G6" s="8">
@@ -963,11 +964,11 @@
       <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="20">
-        <v>3.3640000000000003E-2</v>
-      </c>
-      <c r="F7" s="20">
-        <v>4.7872430000000001E-3</v>
+      <c r="E7" s="23">
+        <v>1.38E-5</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8.1722159999999999E-7</v>
       </c>
       <c r="G7" s="8">
         <v>3</v>
@@ -977,22 +978,22 @@
       </c>
       <c r="I7" s="8">
         <f>((E7-F7)/G7)*2</f>
-        <v>1.9235171333333335E-2</v>
+        <v>8.6551856E-6</v>
       </c>
       <c r="J7" s="8">
         <f>SQRT(I7)</f>
-        <v>0.13869092015461335</v>
+        <v>2.9419696803332286E-3</v>
       </c>
       <c r="K7" s="8">
         <v>0.79800000000000004</v>
       </c>
       <c r="L7" s="19">
         <f>J7*K7</f>
-        <v>0.11067535428338146</v>
+        <v>2.3476918049059165E-3</v>
       </c>
       <c r="M7" s="19">
         <f>(F7/E7)*100</f>
-        <v>14.230805588585016</v>
+        <v>5.9218956521739123</v>
       </c>
       <c r="N7" s="19">
         <v>6.5000000000000085E-2</v>
@@ -1005,10 +1006,10 @@
       <c r="D8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="21">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="21">
         <v>4.5119049999999998E-4</v>
       </c>
       <c r="G8" s="8">
@@ -1044,84 +1045,84 @@
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,7 +1135,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,10 +1160,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2226,10 +2227,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3292,10 +3293,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4488,10 +4489,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5679,10 +5680,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
@@ -5692,10 +5693,10 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
